--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495005.141279676</v>
+        <v>1455041.858340481</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914464</v>
+        <v>426806.975891446</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478706</v>
+        <v>8362709.48847871</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8360845.145494608</v>
+        <v>8360845.145494606</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>178.6958490491743</v>
       </c>
       <c r="U3" t="n">
-        <v>53.36172263168808</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>214.9010874418347</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>29.82674356615911</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>70.34400780127524</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>79.32888471789163</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>198.3159513476325</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>112.8084483529359</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>48.49388794489945</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1457,16 +1457,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>30.37004117374418</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
         <v>65.50479675552441</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1505,7 +1505,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
-        <v>124.5780538636987</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4811043909673</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>85.73493885277919</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>329.1658922819609</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>56.32800613451231</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>135.4810534797011</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.25280406479386</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>344.1707272171644</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>216.8878230093885</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>83.29896986725154</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
-        <v>159.3388108552989</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>16.00101197885777</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>283.4244440311574</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>141.7939290169805</v>
+        <v>313.3270671100598</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>3.722778175975093</v>
       </c>
       <c r="G21" t="n">
         <v>136.64958867533</v>
@@ -2180,7 +2180,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>177.8382517141046</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>115.1647083088917</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.219449231516</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>60.36614054508216</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>166.7374717620664</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>83.29896986725154</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>27.47589768952089</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>13.08993799274036</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>153.9561866171907</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>204.227885497455</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>134.465405995576</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2642,19 +2642,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>64.7588051995882</v>
       </c>
       <c r="F27" t="n">
-        <v>17.79417311172712</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.5623749521075</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>283.2617356253778</v>
+        <v>68.70995148087019</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>75.3170546811963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2888,10 +2888,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>65.9074785402422</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>197.3677099213027</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>119.7809561473941</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.66757925108466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,10 +3046,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>119.2856259772193</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>167.5872248501033</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,13 +3113,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>28.58965000103594</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.64958867533</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>157.6252186004266</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.4297492890001</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>141.605924235581</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>25.44535012911628</v>
+        <v>90.51206582944602</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
-        <v>92.23683576037105</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>77.98571445901715</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>150.7617616219096</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>278.6849755541009</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>75.10986973630057</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.94935617649253</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3641,7 +3641,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>38.75267409192767</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>134.7307170396226</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>222.2621159560654</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>32.10409875031281</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>75.3170546811963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.6039762133035</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>141.8557190765649</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>92.75019109278003</v>
+        <v>148.9977460153649</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -4109,10 +4109,10 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>159.3388108552989</v>
+        <v>67.50465687964518</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>46.59719675730206</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>68.33556691817536</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>720.6083788665362</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>477.1596022224361</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4418,13 +4418,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="U3" t="n">
-        <v>910.1564255796382</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="V3" t="n">
-        <v>675.0043173478955</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W3" t="n">
-        <v>431.5555407037955</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="4">
@@ -4506,16 +4506,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.810259228364</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>251.810259228364</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>251.810259228364</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>251.810259228364</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>495.259035872464</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>251.810259228364</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
         <v>20.03527576299844</v>
@@ -4652,10 +4652,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>630.5730076180869</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>630.5730076180869</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>387.1242309739868</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>577.2332497330343</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>577.2332497330343</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>577.2332497330343</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>577.2332497330343</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.2332497330343</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>526.7184526376595</v>
+        <v>595.5226757151819</v>
       </c>
       <c r="C9" t="n">
-        <v>352.2654233565326</v>
+        <v>421.0696464340549</v>
       </c>
       <c r="D9" t="n">
-        <v>352.2654233565326</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E9" t="n">
-        <v>352.2654233565326</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
         <v>272.1352367728036</v>
@@ -4889,13 +4889,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>526.7184526376595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>526.7184526376595</v>
+        <v>763.7380127352499</v>
       </c>
       <c r="X9" t="n">
-        <v>526.7184526376595</v>
+        <v>763.7380127352499</v>
       </c>
       <c r="Y9" t="n">
-        <v>526.7184526376595</v>
+        <v>763.7380127352499</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1337.17746876542</v>
+        <v>1309.654914773927</v>
       </c>
       <c r="C11" t="n">
-        <v>1337.17746876542</v>
+        <v>1309.654914773927</v>
       </c>
       <c r="D11" t="n">
-        <v>1337.17746876542</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="E11" t="n">
         <v>951.3892161671761</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U11" t="n">
-        <v>1717.224081305859</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V11" t="n">
-        <v>1386.161193962289</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W11" t="n">
-        <v>1337.17746876542</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="X11" t="n">
-        <v>1337.17746876542</v>
+        <v>1813.742174378966</v>
       </c>
       <c r="Y11" t="n">
-        <v>1337.17746876542</v>
+        <v>1423.602842403155</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>882.175553373567</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>707.72252409244</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>558.7881144311888</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>399.5506594257333</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F12" t="n">
-        <v>253.0161014526182</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
         <v>114.9862139017798</v>
@@ -5120,52 +5120,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>1955.392154324066</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.240046092323</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.002689364122</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1258.151189158589</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>1050.390890393635</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="C13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="D13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="E13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="F13" t="n">
-        <v>515.9097814070539</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="G13" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
         <v>48.81975253256327</v>
@@ -5226,25 +5226,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="V13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="W13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="X13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.6381696807582</v>
+        <v>135.4207008687039</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1962.231396731293</v>
+        <v>1108.538768364534</v>
       </c>
       <c r="C14" t="n">
-        <v>1593.268879790881</v>
+        <v>739.5762514241228</v>
       </c>
       <c r="D14" t="n">
-        <v>1593.268879790881</v>
+        <v>381.3105528173723</v>
       </c>
       <c r="E14" t="n">
-        <v>1207.480627192637</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F14" t="n">
-        <v>796.4947224030295</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G14" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
         <v>48.81975253256327</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2315.000052001407</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2315.000052001407</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U14" t="n">
-        <v>2315.000052001407</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V14" t="n">
-        <v>2315.000052001407</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W14" t="n">
-        <v>1962.231396731293</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="X14" t="n">
-        <v>1962.231396731293</v>
+        <v>1495.138608428656</v>
       </c>
       <c r="Y14" t="n">
-        <v>1962.231396731293</v>
+        <v>1495.138608428656</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>987.5947662523754</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>813.1417369712484</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>664.2073273099971</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>504.9698723045416</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>358.4353143314266</v>
       </c>
       <c r="G15" t="n">
         <v>221.5857653620315</v>
@@ -5357,25 +5357,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5384,25 +5384,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S15" t="n">
-        <v>2440.987626628164</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.169209714603</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>1155.810103272443</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
         <v>48.81975253256327</v>
@@ -5469,19 +5469,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1717.224081305859</v>
+        <v>1105.535272020765</v>
       </c>
       <c r="C17" t="n">
-        <v>1717.224081305859</v>
+        <v>736.5727550803538</v>
       </c>
       <c r="D17" t="n">
-        <v>1717.224081305859</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E17" t="n">
-        <v>1369.576882096602</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F17" t="n">
-        <v>958.5909773069948</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5521,7 +5521,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.909017527771</v>
       </c>
       <c r="U17" t="n">
-        <v>1717.224081305859</v>
+        <v>2221.909017527771</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.224081305859</v>
+        <v>2221.909017527771</v>
       </c>
       <c r="W17" t="n">
-        <v>1717.224081305859</v>
+        <v>1869.140362257657</v>
       </c>
       <c r="X17" t="n">
-        <v>1717.224081305859</v>
+        <v>1495.674603996577</v>
       </c>
       <c r="Y17" t="n">
-        <v>1717.224081305859</v>
+        <v>1105.535272020765</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5624,22 +5624,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2222.939999577549</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>351.2209996437976</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="C19" t="n">
-        <v>351.2209996437976</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="D19" t="n">
-        <v>351.2209996437976</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="E19" t="n">
-        <v>335.058361281315</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F19" t="n">
-        <v>188.1684137834047</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G19" t="n">
-        <v>188.1684137834047</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H19" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5706,19 +5706,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="V19" t="n">
-        <v>640.6381696807582</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="W19" t="n">
-        <v>351.2209996437976</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="X19" t="n">
-        <v>351.2209996437976</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="Y19" t="n">
-        <v>351.2209996437976</v>
+        <v>354.3508524775689</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>852.7956710602338</v>
+        <v>776.0479680797255</v>
       </c>
       <c r="C20" t="n">
-        <v>852.7956710602338</v>
+        <v>407.0854511393138</v>
       </c>
       <c r="D20" t="n">
-        <v>852.7956710602338</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E20" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F20" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5758,7 +5758,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>1717.224081305859</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V20" t="n">
-        <v>1386.161193962289</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W20" t="n">
-        <v>1242.935003036046</v>
+        <v>1539.653058316617</v>
       </c>
       <c r="X20" t="n">
-        <v>1242.935003036046</v>
+        <v>1166.187300055537</v>
       </c>
       <c r="Y20" t="n">
-        <v>852.7956710602338</v>
+        <v>776.0479680797255</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5858,25 +5858,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2440.987626628164</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T21" t="n">
-        <v>2241.626303475332</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.991705784318</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2440.987626628164</v>
+        <v>365.6690290428633</v>
       </c>
       <c r="C22" t="n">
-        <v>2272.051443700257</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D22" t="n">
-        <v>2155.723455509457</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E22" t="n">
-        <v>2007.810361927064</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>2007.810361927064</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>2007.810361927064</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J22" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K22" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L22" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V22" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W22" t="n">
-        <v>2440.987626628164</v>
+        <v>365.6690290428633</v>
       </c>
       <c r="X22" t="n">
-        <v>2440.987626628164</v>
+        <v>365.6690290428633</v>
       </c>
       <c r="Y22" t="n">
-        <v>2440.987626628164</v>
+        <v>365.6690290428633</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1430.552781637089</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="C23" t="n">
-        <v>1430.552781637089</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="D23" t="n">
-        <v>1430.552781637089</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="E23" t="n">
-        <v>1369.576882096602</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F23" t="n">
-        <v>958.5909773069948</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G23" t="n">
-        <v>540.4033113775685</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
         <v>145.9660485697318</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W23" t="n">
-        <v>2190.618379962291</v>
+        <v>2272.565937979612</v>
       </c>
       <c r="X23" t="n">
-        <v>1817.152621701211</v>
+        <v>1899.100179718532</v>
       </c>
       <c r="Y23" t="n">
-        <v>1817.152621701211</v>
+        <v>1508.96084774272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.3620754742192</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>775.9090461930922</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>626.9746365318409</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>467.7371815263854</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>321.2026235532704</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G24" t="n">
-        <v>183.172736002432</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H24" t="n">
-        <v>76.57318454218034</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N24" t="n">
         <v>1557.865593173221</v>
@@ -6092,7 +6092,7 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
         <v>2222.939999577549</v>
@@ -6101,19 +6101,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>2023.578676424718</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.426568192976</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1534.189211464774</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.337711259241</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.577412494287</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.04191212118991</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256328</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256328</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256328</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L25" t="n">
         <v>206.6297039190408</v>
@@ -6180,19 +6180,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>351.4590821581505</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="V25" t="n">
-        <v>351.4590821581505</v>
+        <v>485.1268700674343</v>
       </c>
       <c r="W25" t="n">
-        <v>62.04191212118991</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X25" t="n">
-        <v>62.04191212118991</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.04191212118991</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1580.023886607396</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="C26" t="n">
-        <v>1211.061369666984</v>
+        <v>872.3963975001275</v>
       </c>
       <c r="D26" t="n">
-        <v>852.7956710602338</v>
+        <v>514.130698893377</v>
       </c>
       <c r="E26" t="n">
-        <v>467.0074184619895</v>
+        <v>514.130698893377</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0074184619895</v>
+        <v>514.130698893377</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M26" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N26" t="n">
         <v>1672.394424063531</v>
@@ -6244,7 +6244,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
@@ -6253,25 +6253,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U26" t="n">
-        <v>1786.314680039169</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V26" t="n">
-        <v>1786.314680039169</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W26" t="n">
-        <v>1786.314680039169</v>
+        <v>1614.824672701619</v>
       </c>
       <c r="X26" t="n">
-        <v>1786.314680039169</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="Y26" t="n">
-        <v>1786.314680039169</v>
+        <v>1241.358914440539</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F27" t="n">
-        <v>221.5857653620315</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J27" t="n">
         <v>112.9860412505444</v>
@@ -6317,19 +6317,19 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S27" t="n">
         <v>2222.939999577549</v>
@@ -6338,10 +6338,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W27" t="n">
         <v>1306.011707534488</v>
@@ -6350,7 +6350,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K28" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6408,28 +6408,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>492.5953666988314</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>276.5569854093848</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>747.269573414015</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C29" t="n">
-        <v>378.3070564736033</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D29" t="n">
-        <v>378.3070564736033</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E29" t="n">
-        <v>378.3070564736033</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>378.3070564736033</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6475,40 +6475,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V29" t="n">
-        <v>1386.161193962289</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W29" t="n">
-        <v>1033.392538692174</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X29" t="n">
-        <v>747.269573414015</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y29" t="n">
-        <v>747.269573414015</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>890.3999085640012</v>
+        <v>882.5823026510598</v>
       </c>
       <c r="C30" t="n">
-        <v>814.3220755526918</v>
+        <v>708.1292733699328</v>
       </c>
       <c r="D30" t="n">
-        <v>665.3876658914405</v>
+        <v>559.1948637086815</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>399.957408703226</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>253.422850730111</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>115.3929631792726</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601559</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641615</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.557938436082</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.797639671128</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1849.169209479969</v>
+        <v>169.8106173279108</v>
       </c>
       <c r="C31" t="n">
-        <v>1849.169209479969</v>
+        <v>169.8106173279108</v>
       </c>
       <c r="D31" t="n">
-        <v>1849.169209479969</v>
+        <v>169.8106173279108</v>
       </c>
       <c r="E31" t="n">
-        <v>1849.169209479969</v>
+        <v>169.8106173279108</v>
       </c>
       <c r="F31" t="n">
-        <v>1849.169209479969</v>
+        <v>169.8106173279108</v>
       </c>
       <c r="G31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J31" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K31" t="n">
-        <v>1894.037176271117</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L31" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>2440.987626628164</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V31" t="n">
-        <v>2440.987626628164</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W31" t="n">
-        <v>2151.570456591203</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X31" t="n">
-        <v>1923.580905693186</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y31" t="n">
-        <v>1849.169209479969</v>
+        <v>351.4590821581505</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2440.987626628164</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="C32" t="n">
-        <v>2072.025109687752</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="D32" t="n">
-        <v>1713.759411081002</v>
+        <v>1425.877830753807</v>
       </c>
       <c r="E32" t="n">
-        <v>1327.971158482758</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F32" t="n">
-        <v>916.9852536931501</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G32" t="n">
-        <v>498.7975877637238</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H32" t="n">
-        <v>169.3102838226838</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2440.987626628164</v>
+        <v>2202.61700279374</v>
       </c>
       <c r="T32" t="n">
-        <v>2440.987626628164</v>
+        <v>2202.61700279374</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2202.61700279374</v>
       </c>
       <c r="V32" t="n">
-        <v>2440.987626628164</v>
+        <v>2202.61700279374</v>
       </c>
       <c r="W32" t="n">
-        <v>2440.987626628164</v>
+        <v>2202.61700279374</v>
       </c>
       <c r="X32" t="n">
-        <v>2440.987626628164</v>
+        <v>2202.61700279374</v>
       </c>
       <c r="Y32" t="n">
-        <v>2440.987626628164</v>
+        <v>1812.477670817928</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D33" t="n">
-        <v>518.8531079183253</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E33" t="n">
-        <v>359.6156529128699</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F33" t="n">
         <v>359.6156529128699</v>
@@ -6776,55 +6776,55 @@
         <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2281.770234102481</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2082.408910949649</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1854.231407019364</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1619.079298787621</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1364.84194205942</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1156.990441853887</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C34" t="n">
-        <v>493.7394330252025</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D34" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E34" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6891,19 +6891,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807582</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="W34" t="n">
-        <v>640.6381696807582</v>
+        <v>497.6018825741107</v>
       </c>
       <c r="X34" t="n">
-        <v>640.6381696807582</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1007.69016482438</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C35" t="n">
-        <v>1007.69016482438</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D35" t="n">
-        <v>1007.69016482438</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E35" t="n">
-        <v>621.901912226136</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
@@ -6943,13 +6943,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O35" t="n">
         <v>2037.925350935285</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>1386.161193962289</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W35" t="n">
-        <v>1033.392538692174</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X35" t="n">
-        <v>1007.69016482438</v>
+        <v>2349.561297507511</v>
       </c>
       <c r="Y35" t="n">
-        <v>1007.69016482438</v>
+        <v>1959.421965531699</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7043,25 +7043,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>424.5997883913116</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C37" t="n">
-        <v>424.5997883913116</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D37" t="n">
-        <v>274.4831489789758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E37" t="n">
-        <v>274.4831489789758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>127.5932014810654</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
         <v>48.81975253256327</v>
@@ -7122,25 +7122,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>424.5997883913116</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X37" t="n">
-        <v>424.5997883913116</v>
+        <v>198.936391944899</v>
       </c>
       <c r="Y37" t="n">
-        <v>424.5997883913116</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1755.365134694847</v>
+        <v>1074.373679044731</v>
       </c>
       <c r="C38" t="n">
-        <v>1755.365134694847</v>
+        <v>1074.373679044731</v>
       </c>
       <c r="D38" t="n">
-        <v>1755.365134694847</v>
+        <v>716.1079804379801</v>
       </c>
       <c r="E38" t="n">
-        <v>1369.576882096602</v>
+        <v>330.3197278397359</v>
       </c>
       <c r="F38" t="n">
-        <v>958.5909773069948</v>
+        <v>330.3197278397359</v>
       </c>
       <c r="G38" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7192,7 +7192,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
@@ -7201,25 +7201,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.119071338971</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2145.504466670658</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U38" t="n">
-        <v>2145.504466670658</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V38" t="n">
-        <v>2145.504466670658</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="W38" t="n">
-        <v>2145.504466670658</v>
+        <v>1834.439277369932</v>
       </c>
       <c r="X38" t="n">
-        <v>2145.504466670658</v>
+        <v>1460.973519108852</v>
       </c>
       <c r="Y38" t="n">
-        <v>1755.365134694847</v>
+        <v>1460.973519108852</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F39" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2414.776155742818</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2254.378424635692</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2055.017101482861</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1826.839597552575</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="C40" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="D40" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="E40" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="F40" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G40" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H40" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
-        <v>2006.979160866447</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>2136.449771081982</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>2374.023479227557</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>2440.987626628164</v>
+        <v>601.4940544363868</v>
       </c>
       <c r="S40" t="n">
-        <v>2440.987626628164</v>
+        <v>601.4940544363868</v>
       </c>
       <c r="T40" t="n">
-        <v>2213.250393751342</v>
+        <v>601.4940544363868</v>
       </c>
       <c r="U40" t="n">
-        <v>2213.250393751342</v>
+        <v>601.4940544363868</v>
       </c>
       <c r="V40" t="n">
-        <v>2077.158760377986</v>
+        <v>346.8095662305</v>
       </c>
       <c r="W40" t="n">
-        <v>2077.158760377986</v>
+        <v>346.8095662305</v>
       </c>
       <c r="X40" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="Y40" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>273.3269403669728</v>
+        <v>1161.83622067797</v>
       </c>
       <c r="C41" t="n">
-        <v>273.3269403669728</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D41" t="n">
-        <v>273.3269403669728</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E41" t="n">
-        <v>273.3269403669728</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F41" t="n">
-        <v>273.3269403669728</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G41" t="n">
-        <v>273.3269403669728</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256327</v>
@@ -7444,19 +7444,19 @@
         <v>1971.003775293977</v>
       </c>
       <c r="U41" t="n">
-        <v>1717.224081305859</v>
+        <v>1938.575392717903</v>
       </c>
       <c r="V41" t="n">
-        <v>1386.161193962289</v>
+        <v>1938.575392717903</v>
       </c>
       <c r="W41" t="n">
-        <v>1033.392538692174</v>
+        <v>1938.575392717903</v>
       </c>
       <c r="X41" t="n">
-        <v>659.9267804310946</v>
+        <v>1938.575392717903</v>
       </c>
       <c r="Y41" t="n">
-        <v>659.9267804310946</v>
+        <v>1548.436060742092</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>890.3999085640012</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2316.135125402604</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
-        <v>2147.198942474698</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D43" t="n">
-        <v>1997.082303062362</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>2440.987626628164</v>
+        <v>497.3495645529149</v>
       </c>
       <c r="T43" t="n">
-        <v>2440.987626628164</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="U43" t="n">
-        <v>2440.987626628164</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="V43" t="n">
-        <v>2440.987626628164</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="W43" t="n">
-        <v>2440.987626628164</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="X43" t="n">
-        <v>2440.987626628164</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y43" t="n">
-        <v>2440.987626628164</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1255.523282387848</v>
+        <v>1723.324899220471</v>
       </c>
       <c r="C44" t="n">
-        <v>886.5607654474368</v>
+        <v>1354.362382280059</v>
       </c>
       <c r="D44" t="n">
-        <v>528.2950668406863</v>
+        <v>996.0966836733089</v>
       </c>
       <c r="E44" t="n">
-        <v>142.5068142424421</v>
+        <v>610.3084310750646</v>
       </c>
       <c r="F44" t="n">
-        <v>142.5068142424421</v>
+        <v>199.3225262854571</v>
       </c>
       <c r="G44" t="n">
         <v>48.81975253256327</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>2371.897027894854</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W44" t="n">
-        <v>2019.12837262474</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X44" t="n">
-        <v>1645.66261436366</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="Y44" t="n">
-        <v>1255.523282387848</v>
+        <v>2109.924739284593</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.7751048338188</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H45" t="n">
         <v>114.9862139017798</v>
@@ -7727,25 +7727,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7757,22 +7757,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T45" t="n">
-        <v>2222.939999577549</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.991705784318</v>
+        <v>1955.392154324066</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.839597552575</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.602240824373</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.750740618841</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.990441853887</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2213.250393751342</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="C46" t="n">
-        <v>2213.250393751342</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="D46" t="n">
-        <v>2166.182518238916</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E46" t="n">
-        <v>2018.269424656522</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F46" t="n">
-        <v>2018.269424656522</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G46" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I46" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J46" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K46" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L46" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M46" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N46" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O46" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P46" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q46" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>2213.250393751342</v>
+        <v>571.6123445108841</v>
       </c>
       <c r="U46" t="n">
-        <v>2213.250393751342</v>
+        <v>571.6123445108841</v>
       </c>
       <c r="V46" t="n">
-        <v>2213.250393751342</v>
+        <v>571.6123445108841</v>
       </c>
       <c r="W46" t="n">
-        <v>2213.250393751342</v>
+        <v>571.6123445108841</v>
       </c>
       <c r="X46" t="n">
-        <v>2213.250393751342</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="Y46" t="n">
-        <v>2213.250393751342</v>
+        <v>343.6227936128668</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8537,16 +8537,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>268.6397271670517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003852</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>203.8252941185856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>354.1197822338756</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617152</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K42" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>269.9253933105447</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>300.7470807725136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>127.2750392816568</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>101.3176750272839</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>21.93994363196394</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>81.67427417200913</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
         <v>52.22830032617343</v>
@@ -23466,13 +23466,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>52.76447779030087</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>123.1378553187258</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.168535195628863</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>74.16824395813738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>37.75964285509735</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.5306356122419515</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>61.77024252613234</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>66.55691803568379</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>130.4329506677114</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>52.22830032617343</v>
@@ -23946,13 +23946,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>2.862852616224188</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>207.4470397004326</v>
+        <v>35.91390160735318</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33.45076470932065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>14.30354910507504</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>321.5642295271796</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
         <v>217.4184586216305</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>182.5034969553466</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>61.77024252613234</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.02889906600352</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>154.1568831058875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24420,7 +24420,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>132.3311100301909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>178.5059561660256</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>279.5403832745559</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24493,7 +24493,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24530,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>92.88627525581275</v>
       </c>
       <c r="F27" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
-        <v>4.572686549298851</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>86.46936505309122</v>
+        <v>301.0211491975988</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>97.39144430711944</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>39.62607740540697</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>47.62825687739428</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24894,19 +24894,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>144.9170741010101</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>41.18966637770619</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>11.87863660313485</v>
       </c>
       <c r="T32" t="n">
         <v>217.4184586216305</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>118.8554155636028</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.168535195628209</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.81707180962769</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25131,7 +25131,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>144.6813724118006</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>344.2857505493528</v>
+        <v>279.219034849023</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>105.1308741609316</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>89.42349856577118</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25362,7 +25362,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>74.94789376712757</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>135.3208137160311</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>104.3559917169376</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.12404080756101</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>52.22830032617343</v>
@@ -25596,25 +25596,25 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>112.3823874094787</v>
       </c>
       <c r="S40" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>117.4069262842054</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,7 +25645,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>103.9303149455641</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>219.1377982979234</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>97.39144430711944</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.22800396863381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,10 +25836,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>72.02227839998727</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>321.2555981773519</v>
+        <v>265.0080432547671</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -25924,16 +25924,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25961,7 +25961,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>66.55691803568379</v>
+        <v>158.3910720113375</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>102.0182762609103</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26076,7 +26076,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>157.1242936298779</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645202.6743111209</v>
+        <v>645202.6743111208</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645202.674311121</v>
+        <v>645202.6743111208</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645202.674311121</v>
+        <v>645202.6743111208</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645202.6743111209</v>
+        <v>645202.6743111208</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645202.6743111209</v>
+        <v>645202.674311121</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645202.6743111211</v>
+        <v>645202.6743111208</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645202.6743111211</v>
+        <v>645202.6743111208</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645202.6743111209</v>
+        <v>645202.674311121</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>645202.6743111211</v>
+        <v>645202.6743111208</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651769</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>338927.9918218705</v>
+        <v>338927.9918218706</v>
       </c>
       <c r="F2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218704</v>
       </c>
       <c r="G2" t="n">
         <v>338927.9918218704</v>
@@ -26334,28 +26334,28 @@
         <v>338927.9918218706</v>
       </c>
       <c r="I2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218704</v>
       </c>
       <c r="J2" t="n">
         <v>338927.9918218704</v>
       </c>
       <c r="K2" t="n">
-        <v>338927.9918218706</v>
+        <v>338927.9918218705</v>
       </c>
       <c r="L2" t="n">
         <v>338927.9918218706</v>
       </c>
       <c r="M2" t="n">
-        <v>338927.9918218707</v>
+        <v>338927.9918218704</v>
       </c>
       <c r="N2" t="n">
         <v>338927.9918218705</v>
       </c>
       <c r="O2" t="n">
+        <v>338927.9918218705</v>
+      </c>
+      <c r="P2" t="n">
         <v>338927.9918218704</v>
-      </c>
-      <c r="P2" t="n">
-        <v>338927.9918218706</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109308</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>35595.99830849798</v>
       </c>
       <c r="F4" t="n">
-        <v>35595.99830849799</v>
+        <v>35595.99830849798</v>
       </c>
       <c r="G4" t="n">
         <v>35595.99830849798</v>
@@ -26438,22 +26438,22 @@
         <v>35595.99830849798</v>
       </c>
       <c r="I4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="J4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="K4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="L4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="M4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="N4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="O4" t="n">
         <v>35595.99830849798</v>
@@ -26490,22 +26490,22 @@
         <v>44136.03802033842</v>
       </c>
       <c r="I5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="J5" t="n">
         <v>44136.03802033843</v>
       </c>
-      <c r="J5" t="n">
-        <v>44136.03802033842</v>
-      </c>
       <c r="K5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71505.03145115037</v>
+        <v>71505.03145115048</v>
       </c>
       <c r="C6" t="n">
-        <v>152274.4629826983</v>
+        <v>152274.4629826981</v>
       </c>
       <c r="D6" t="n">
-        <v>152274.4629826983</v>
+        <v>152274.4629826982</v>
       </c>
       <c r="E6" t="n">
-        <v>-110239.3436397461</v>
+        <v>-117208.2682134782</v>
       </c>
       <c r="F6" t="n">
-        <v>259195.9554930341</v>
+        <v>252227.0309193018</v>
       </c>
       <c r="G6" t="n">
-        <v>259195.9554930341</v>
+        <v>252227.0309193018</v>
       </c>
       <c r="H6" t="n">
-        <v>259195.9554930341</v>
+        <v>252227.0309193019</v>
       </c>
       <c r="I6" t="n">
-        <v>259195.9554930342</v>
+        <v>252227.0309193018</v>
       </c>
       <c r="J6" t="n">
-        <v>196136.0128939279</v>
+        <v>189167.0883201955</v>
       </c>
       <c r="K6" t="n">
-        <v>259195.9554930342</v>
+        <v>252227.0309193018</v>
       </c>
       <c r="L6" t="n">
-        <v>259195.9554930342</v>
+        <v>252227.0309193019</v>
       </c>
       <c r="M6" t="n">
-        <v>167181.7102119412</v>
+        <v>160212.7856382086</v>
       </c>
       <c r="N6" t="n">
-        <v>259195.9554930341</v>
+        <v>252227.0309193018</v>
       </c>
       <c r="O6" t="n">
-        <v>259195.9554930341</v>
+        <v>252227.0309193018</v>
       </c>
       <c r="P6" t="n">
-        <v>259195.9554930342</v>
+        <v>252227.0309193018</v>
       </c>
     </row>
   </sheetData>
@@ -26810,22 +26810,22 @@
         <v>610.2469066570409</v>
       </c>
       <c r="I4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="J4" t="n">
         <v>610.246906657041</v>
       </c>
-      <c r="J4" t="n">
-        <v>610.2469066570409</v>
-      </c>
       <c r="K4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>273.8529271457276</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27469,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="U3" t="n">
-        <v>172.5796594492867</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27578,19 +27578,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4421264957783</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>191.9749582998768</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>196.1146385148157</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>147.7031912398178</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>336.5320379404362</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>201.5644868610308</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>65.74032767549225</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27985,16 +27985,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>53.37903181328713</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35257,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35503,13 +35503,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>291.1467225562099</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508155</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35737,7 +35737,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36214,13 +36214,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3322895077438</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
@@ -36448,7 +36448,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36685,16 +36685,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36922,7 +36922,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37159,7 +37159,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
@@ -37396,7 +37396,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>403.2573043735003</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37633,7 +37633,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891457</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
